--- a/Models/Fed Models/Four Models/Similar Words/similar_words_2020_2023.xlsx
+++ b/Models/Fed Models/Four Models/Similar Words/similar_words_2020_2023.xlsx
@@ -465,7 +465,7 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>0.7846027612686157</v>
+        <v>0.7896191477775574</v>
       </c>
     </row>
     <row r="3">
@@ -483,7 +483,7 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>0.746593713760376</v>
+        <v>0.7600307464599609</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>0.6109100580215454</v>
+        <v>0.6293131113052368</v>
       </c>
     </row>
     <row r="5">
@@ -519,7 +519,7 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>0.5808385014533997</v>
+        <v>0.6166055202484131</v>
       </c>
     </row>
     <row r="6">
@@ -533,11 +533,11 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>continue</t>
+          <t>mortgage</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>0.5799295902252197</v>
+        <v>0.6061130166053772</v>
       </c>
     </row>
     <row r="7">
@@ -551,11 +551,11 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>concern</t>
+          <t>continue</t>
         </is>
       </c>
       <c r="D7" t="n">
-        <v>0.5747987031936646</v>
+        <v>0.5932634472846985</v>
       </c>
     </row>
     <row r="8">
@@ -569,11 +569,11 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>elevated</t>
+          <t>inflation</t>
         </is>
       </c>
       <c r="D8" t="n">
-        <v>0.5653290748596191</v>
+        <v>0.566853404045105</v>
       </c>
     </row>
     <row r="9">
@@ -587,11 +587,11 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>mortgage</t>
+          <t>elevated</t>
         </is>
       </c>
       <c r="D9" t="n">
-        <v>0.5532251000404358</v>
+        <v>0.5618152022361755</v>
       </c>
     </row>
     <row r="10">
@@ -605,11 +605,11 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>inflation</t>
+          <t>commercial</t>
         </is>
       </c>
       <c r="D10" t="n">
-        <v>0.550861120223999</v>
+        <v>0.5609279870986938</v>
       </c>
     </row>
     <row r="11">
@@ -623,11 +623,11 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>deposit</t>
+          <t>concern</t>
         </is>
       </c>
       <c r="D11" t="n">
-        <v>0.5424683690071106</v>
+        <v>0.5577398538589478</v>
       </c>
     </row>
     <row r="12">
@@ -641,11 +641,11 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>rise</t>
+          <t>interest</t>
         </is>
       </c>
       <c r="D12" t="n">
-        <v>0.578433096408844</v>
+        <v>0.566853404045105</v>
       </c>
     </row>
     <row r="13">
@@ -659,11 +659,11 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>interest</t>
+          <t>rise</t>
         </is>
       </c>
       <c r="D13" t="n">
-        <v>0.550861120223999</v>
+        <v>0.5616406202316284</v>
       </c>
     </row>
     <row r="14">
@@ -681,7 +681,7 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>0.5351933240890503</v>
+        <v>0.5366746783256531</v>
       </c>
     </row>
     <row r="15">
@@ -695,11 +695,11 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>concern</t>
+          <t>high</t>
         </is>
       </c>
       <c r="D15" t="n">
-        <v>0.5125273466110229</v>
+        <v>0.5099443793296814</v>
       </c>
     </row>
     <row r="16">
@@ -713,11 +713,11 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>high</t>
+          <t>employment</t>
         </is>
       </c>
       <c r="D16" t="n">
-        <v>0.5061098337173462</v>
+        <v>0.5018878579139709</v>
       </c>
     </row>
     <row r="17">
@@ -731,11 +731,11 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>continue</t>
+          <t>concern</t>
         </is>
       </c>
       <c r="D17" t="n">
-        <v>0.4949043989181518</v>
+        <v>0.5006101727485657</v>
       </c>
     </row>
     <row r="18">
@@ -749,11 +749,11 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>increase</t>
+          <t>contact</t>
         </is>
       </c>
       <c r="D18" t="n">
-        <v>0.4832917153835296</v>
+        <v>0.4986400604248047</v>
       </c>
     </row>
     <row r="19">
@@ -767,11 +767,11 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>employment</t>
+          <t>continue</t>
         </is>
       </c>
       <c r="D19" t="n">
-        <v>0.4808887839317322</v>
+        <v>0.496562659740448</v>
       </c>
     </row>
     <row r="20">
@@ -785,11 +785,11 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>however</t>
+          <t>expectation</t>
         </is>
       </c>
       <c r="D20" t="n">
-        <v>0.4789090752601623</v>
+        <v>0.4741524457931518</v>
       </c>
     </row>
     <row r="21">
@@ -803,11 +803,11 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>contact</t>
+          <t>increase</t>
         </is>
       </c>
       <c r="D21" t="n">
-        <v>0.4764469265937805</v>
+        <v>0.4714706838130951</v>
       </c>
     </row>
     <row r="22">
@@ -821,11 +821,11 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>laborsave</t>
+          <t>automation</t>
         </is>
       </c>
       <c r="D22" t="n">
-        <v>0.475366860628128</v>
+        <v>0.4898182451725006</v>
       </c>
     </row>
     <row r="23">
@@ -839,11 +839,11 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>process</t>
+          <t>laborsave</t>
         </is>
       </c>
       <c r="D23" t="n">
-        <v>0.4686212837696075</v>
+        <v>0.4809595048427582</v>
       </c>
     </row>
     <row r="24">
@@ -857,11 +857,11 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>automation</t>
+          <t>design</t>
         </is>
       </c>
       <c r="D24" t="n">
-        <v>0.4400428831577301</v>
+        <v>0.4202724099159241</v>
       </c>
     </row>
     <row r="25">
@@ -875,11 +875,11 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>hesitant</t>
+          <t>downsizing</t>
         </is>
       </c>
       <c r="D25" t="n">
-        <v>0.4172741174697876</v>
+        <v>0.405096024274826</v>
       </c>
     </row>
     <row r="26">
@@ -897,7 +897,7 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>0.4028011560440063</v>
+        <v>0.3957929015159607</v>
       </c>
     </row>
     <row r="27">
@@ -911,11 +911,11 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>tiously</t>
+          <t>endus</t>
         </is>
       </c>
       <c r="D27" t="n">
-        <v>0.3954834043979645</v>
+        <v>0.3899362683296203</v>
       </c>
     </row>
     <row r="28">
@@ -929,11 +929,11 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>administrator</t>
+          <t>interestbearing</t>
         </is>
       </c>
       <c r="D28" t="n">
-        <v>0.3905662894248962</v>
+        <v>0.3792942762374878</v>
       </c>
     </row>
     <row r="29">
@@ -947,11 +947,11 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>address</t>
+          <t>technology</t>
         </is>
       </c>
       <c r="D29" t="n">
-        <v>0.3889840245246887</v>
+        <v>0.3787357211112976</v>
       </c>
     </row>
     <row r="30">
@@ -965,11 +965,11 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>burden</t>
+          <t>composition</t>
         </is>
       </c>
       <c r="D30" t="n">
-        <v>0.3810492157936096</v>
+        <v>0.3747909367084503</v>
       </c>
     </row>
     <row r="31">
@@ -983,11 +983,11 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>duration</t>
+          <t>tiously</t>
         </is>
       </c>
       <c r="D31" t="n">
-        <v>0.3728178441524505</v>
+        <v>0.3745763599872589</v>
       </c>
     </row>
     <row r="32">
@@ -1005,7 +1005,7 @@
         </is>
       </c>
       <c r="D32" t="n">
-        <v>0.5812103152275085</v>
+        <v>0.5868028402328491</v>
       </c>
     </row>
     <row r="33">
@@ -1019,11 +1019,11 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>tremendous</t>
+          <t>poach</t>
         </is>
       </c>
       <c r="D33" t="n">
-        <v>0.4338325560092926</v>
+        <v>0.4135763943195343</v>
       </c>
     </row>
     <row r="34">
@@ -1037,11 +1037,11 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>layoff</t>
+          <t>hourly</t>
         </is>
       </c>
       <c r="D34" t="n">
-        <v>0.423710435628891</v>
+        <v>0.4074746668338775</v>
       </c>
     </row>
     <row r="35">
@@ -1055,11 +1055,11 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>employer</t>
+          <t>phase</t>
         </is>
       </c>
       <c r="D35" t="n">
-        <v>0.3982099294662475</v>
+        <v>0.3961473107337951</v>
       </c>
     </row>
     <row r="36">
@@ -1073,11 +1073,11 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>specialty</t>
+          <t>tremendous</t>
         </is>
       </c>
       <c r="D36" t="n">
-        <v>0.3970576822757721</v>
+        <v>0.3845434188842773</v>
       </c>
     </row>
     <row r="37">
@@ -1095,7 +1095,7 @@
         </is>
       </c>
       <c r="D37" t="n">
-        <v>0.3953686356544494</v>
+        <v>0.3815480768680572</v>
       </c>
     </row>
     <row r="38">
@@ -1109,11 +1109,11 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>position</t>
+          <t>ture</t>
         </is>
       </c>
       <c r="D38" t="n">
-        <v>0.3886004984378814</v>
+        <v>0.3786315321922302</v>
       </c>
     </row>
     <row r="39">
@@ -1127,11 +1127,11 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>hourly</t>
+          <t>aforementioned</t>
         </is>
       </c>
       <c r="D39" t="n">
-        <v>0.3866031467914581</v>
+        <v>0.3781601190567016</v>
       </c>
     </row>
     <row r="40">
@@ -1145,11 +1145,11 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>impetus</t>
+          <t>machinist</t>
         </is>
       </c>
       <c r="D40" t="n">
-        <v>0.386016696691513</v>
+        <v>0.3765192925930023</v>
       </c>
     </row>
     <row r="41">
@@ -1163,11 +1163,11 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>poach</t>
+          <t>refinery</t>
         </is>
       </c>
       <c r="D41" t="n">
-        <v>0.3847929835319519</v>
+        <v>0.3755677342414856</v>
       </c>
     </row>
     <row r="42">
@@ -1185,7 +1185,7 @@
         </is>
       </c>
       <c r="D42" t="n">
-        <v>0.4734054803848266</v>
+        <v>0.5144216418266296</v>
       </c>
     </row>
     <row r="43">
@@ -1199,11 +1199,11 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>loom</t>
+          <t>highly</t>
         </is>
       </c>
       <c r="D43" t="n">
-        <v>0.4508491456508636</v>
+        <v>0.4922049343585968</v>
       </c>
     </row>
     <row r="44">
@@ -1221,7 +1221,7 @@
         </is>
       </c>
       <c r="D44" t="n">
-        <v>0.4273024797439575</v>
+        <v>0.4570409953594208</v>
       </c>
     </row>
     <row r="45">
@@ -1235,11 +1235,11 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>fitful</t>
+          <t>forward</t>
         </is>
       </c>
       <c r="D45" t="n">
-        <v>0.4234796464443207</v>
+        <v>0.4426227807998657</v>
       </c>
     </row>
     <row r="46">
@@ -1253,11 +1253,11 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>highly</t>
+          <t>loom</t>
         </is>
       </c>
       <c r="D46" t="n">
-        <v>0.4224433600902557</v>
+        <v>0.4351649582386017</v>
       </c>
     </row>
     <row r="47">
@@ -1271,11 +1271,11 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>tomato</t>
+          <t>decidedly</t>
         </is>
       </c>
       <c r="D47" t="n">
-        <v>0.4168524146080017</v>
+        <v>0.4260418117046356</v>
       </c>
     </row>
     <row r="48">
@@ -1293,7 +1293,7 @@
         </is>
       </c>
       <c r="D48" t="n">
-        <v>0.4056997299194336</v>
+        <v>0.4253073930740356</v>
       </c>
     </row>
     <row r="49">
@@ -1307,11 +1307,11 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>forward</t>
+          <t>administer</t>
         </is>
       </c>
       <c r="D49" t="n">
-        <v>0.4049030542373657</v>
+        <v>0.4057942032814026</v>
       </c>
     </row>
     <row r="50">
@@ -1325,11 +1325,11 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>helpful</t>
+          <t>pessimistic</t>
         </is>
       </c>
       <c r="D50" t="n">
-        <v>0.4031267464160919</v>
+        <v>0.4022544622421264</v>
       </c>
     </row>
     <row r="51">
@@ -1343,11 +1343,11 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>uncertainty</t>
+          <t>impact</t>
         </is>
       </c>
       <c r="D51" t="n">
-        <v>0.4016225636005401</v>
+        <v>0.3973610401153564</v>
       </c>
     </row>
   </sheetData>
